--- a/Linux OS upgradation project plan.xlsx
+++ b/Linux OS upgradation project plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Centotech\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Responsibility</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Set up test environment</t>
-  </si>
-  <si>
-    <t>DevOps</t>
   </si>
   <si>
     <t>Perform dry-run upgrade</t>
@@ -283,12 +280,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +329,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -676,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -696,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -705,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -725,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -733,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -745,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -753,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -765,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -785,7 +789,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -802,32 +806,32 @@
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -836,15 +840,15 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -853,7 +857,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -861,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -870,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -878,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -887,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -895,16 +899,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -912,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -921,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +939,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
